--- a/data/trans_orig/P71_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P71_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>68578</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53605</v>
+        <v>54035</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84977</v>
+        <v>86847</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1000268991236221</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0781864934375332</v>
+        <v>0.07881482608593759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.123945616089943</v>
+        <v>0.1266736383754878</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -765,19 +765,19 @@
         <v>39231</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28342</v>
+        <v>28081</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53151</v>
+        <v>51378</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0577836178690577</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04174514946181886</v>
+        <v>0.04136102853296338</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07828781713575264</v>
+        <v>0.07567542851727596</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>108</v>
@@ -786,19 +786,19 @@
         <v>107809</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>89439</v>
+        <v>89938</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>127567</v>
+        <v>130326</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07900860876378341</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06554614475382321</v>
+        <v>0.0659120019054969</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09348857526967659</v>
+        <v>0.09551027944262291</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>275130</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>252214</v>
+        <v>251143</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>301540</v>
+        <v>302458</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.401298333502237</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.367873631897939</v>
+        <v>0.3663119588455734</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4398187617003375</v>
+        <v>0.4411579280105569</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>245</v>
@@ -836,19 +836,19 @@
         <v>240166</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>215002</v>
+        <v>214621</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>263701</v>
+        <v>263606</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3537451817229578</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3166807811321772</v>
+        <v>0.3161197560225535</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3884106040526103</v>
+        <v>0.3882702528213502</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>513</v>
@@ -857,19 +857,19 @@
         <v>515296</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>479884</v>
+        <v>480940</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>553475</v>
+        <v>549813</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3776380987397118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3516861752843978</v>
+        <v>0.3524605256597742</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.405617686639069</v>
+        <v>0.402934381735339</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>241717</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>215658</v>
+        <v>215540</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>265188</v>
+        <v>265517</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3525631688464306</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3145540759535585</v>
+        <v>0.3143819250653247</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3867973346496899</v>
+        <v>0.3872770420236704</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>240</v>
@@ -907,19 +907,19 @@
         <v>236584</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>211320</v>
+        <v>214455</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>260587</v>
+        <v>263551</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3484700044906902</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3112574328024162</v>
+        <v>0.3158749966547357</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3838244880267599</v>
+        <v>0.3881899253688421</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>480</v>
@@ -928,19 +928,19 @@
         <v>478302</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>444581</v>
+        <v>444317</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>513159</v>
+        <v>514470</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3505266007966842</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.325813953400761</v>
+        <v>0.3256207545192792</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3760717409025284</v>
+        <v>0.3770329874122895</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>100174</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>83334</v>
+        <v>82141</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118812</v>
+        <v>120956</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1461115985277104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1215488727713192</v>
+        <v>0.119809214544936</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1732970202167409</v>
+        <v>0.1764237994753734</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>161</v>
@@ -978,19 +978,19 @@
         <v>162942</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>141513</v>
+        <v>142159</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>190745</v>
+        <v>186783</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2400011959172944</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2084373700410604</v>
+        <v>0.2093894840710455</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2809516691353784</v>
+        <v>0.2751161111424489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>260</v>
@@ -999,19 +999,19 @@
         <v>263116</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>233188</v>
+        <v>232441</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>289226</v>
+        <v>291781</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1928266916998205</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1708936931889065</v>
+        <v>0.1703462904904714</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2119613732460026</v>
+        <v>0.2138337256392743</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>147862</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>125522</v>
+        <v>125528</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>173989</v>
+        <v>171919</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1560660328896455</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1324872508717521</v>
+        <v>0.1324927036678615</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.183643454570425</v>
+        <v>0.1814587230499815</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>91</v>
@@ -1124,19 +1124,19 @@
         <v>95547</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>78987</v>
+        <v>77077</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>116530</v>
+        <v>116312</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.100548063625451</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08312111186243912</v>
+        <v>0.08111172156527229</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.122629767813303</v>
+        <v>0.1223999594711246</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>226</v>
@@ -1145,19 +1145,19 @@
         <v>243408</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>212411</v>
+        <v>216507</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>275663</v>
+        <v>273465</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1282656651472407</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1119313909719931</v>
+        <v>0.1140897093680443</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1452624273569082</v>
+        <v>0.1441040491252411</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>316192</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>285353</v>
+        <v>287072</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>347341</v>
+        <v>345600</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3337360713589567</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.301186281120869</v>
+        <v>0.303001111579796</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3666135831743506</v>
+        <v>0.3647766664227424</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>284</v>
@@ -1195,19 +1195,19 @@
         <v>298621</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>271815</v>
+        <v>270664</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>328622</v>
+        <v>326965</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.31425199309097</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.286042746841692</v>
+        <v>0.2848321277482867</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3458234031629164</v>
+        <v>0.3440799463029557</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>579</v>
@@ -1216,19 +1216,19 @@
         <v>614812</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>575239</v>
+        <v>575758</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>661234</v>
+        <v>660753</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3239795087874008</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3031259325946476</v>
+        <v>0.3033993735440712</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3484417334278758</v>
+        <v>0.3481880373775095</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>324683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>294565</v>
+        <v>294910</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>355577</v>
+        <v>356861</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3426990947124922</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3109092331480002</v>
+        <v>0.3112736114731675</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3753068546731272</v>
+        <v>0.3766619929730942</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>285</v>
@@ -1266,19 +1266,19 @@
         <v>306410</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>275264</v>
+        <v>278396</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334871</v>
+        <v>336598</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.322448479499813</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2896725707213742</v>
+        <v>0.2929688354895457</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3523995340207758</v>
+        <v>0.3542169906867769</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>589</v>
@@ -1287,19 +1287,19 @@
         <v>631093</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>591253</v>
+        <v>592660</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>678194</v>
+        <v>676653</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3325586922917304</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3115650025645828</v>
+        <v>0.312305938282825</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3573791463141974</v>
+        <v>0.3565668832597534</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>158693</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>137342</v>
+        <v>136558</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>184684</v>
+        <v>182941</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1674988010389057</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1449629557183779</v>
+        <v>0.1441351938156865</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1949315783159979</v>
+        <v>0.1930919864696655</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>231</v>
@@ -1337,19 +1337,19 @@
         <v>249682</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>223268</v>
+        <v>222247</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>280022</v>
+        <v>279080</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.262751463783766</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2349551161386982</v>
+        <v>0.2338801753818335</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2946791547192951</v>
+        <v>0.2936883820870975</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>380</v>
@@ -1358,19 +1358,19 @@
         <v>408375</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>372736</v>
+        <v>370907</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>447363</v>
+        <v>445704</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2151961337736282</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.196415964883704</v>
+        <v>0.1954516807673453</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2357409453322062</v>
+        <v>0.2348668747982467</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>80109</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63454</v>
+        <v>64313</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>97601</v>
+        <v>98375</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1192696317393565</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09447260848432655</v>
+        <v>0.09575258506481601</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1453125775918141</v>
+        <v>0.1464652841817593</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -1483,19 +1483,19 @@
         <v>60625</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47763</v>
+        <v>47334</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74873</v>
+        <v>74031</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09062259974932149</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07139529700031706</v>
+        <v>0.07075400668292196</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1119201823390761</v>
+        <v>0.1106606207490872</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>144</v>
@@ -1504,19 +1504,19 @@
         <v>140734</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>120403</v>
+        <v>120030</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>166393</v>
+        <v>163946</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1049746917005064</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08980924596856829</v>
+        <v>0.08953156203345217</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1241134027134744</v>
+        <v>0.1222887485062793</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>240799</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>217294</v>
+        <v>215731</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>266894</v>
+        <v>264855</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3585116293476373</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3235162820509236</v>
+        <v>0.3211898351314664</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3973639486429851</v>
+        <v>0.3943272496603776</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>184</v>
@@ -1554,19 +1554,19 @@
         <v>176551</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>154552</v>
+        <v>155945</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>198695</v>
+        <v>197368</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2639070684409023</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2310242526709204</v>
+        <v>0.2331058323395991</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2970077246953077</v>
+        <v>0.2950252623638221</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>414</v>
@@ -1575,19 +1575,19 @@
         <v>417349</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>384301</v>
+        <v>381759</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>446908</v>
+        <v>448945</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3113037187328851</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2866529010852461</v>
+        <v>0.2847567765693459</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3333513627686198</v>
+        <v>0.334871005828188</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>218819</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>196216</v>
+        <v>194921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>245511</v>
+        <v>243979</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.325787673032235</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2921356438450728</v>
+        <v>0.2902064263870475</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3655272489775843</v>
+        <v>0.3632459786505712</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>228</v>
@@ -1625,19 +1625,19 @@
         <v>227629</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>206613</v>
+        <v>205130</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>252250</v>
+        <v>250682</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3402586572487801</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3088442905854117</v>
+        <v>0.3066277759351625</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3770616511372762</v>
+        <v>0.3747179217945343</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>430</v>
@@ -1646,19 +1646,19 @@
         <v>446448</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>414059</v>
+        <v>415644</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>480532</v>
+        <v>484121</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.333008730060084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3088494668953391</v>
+        <v>0.3100320534258761</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3584323585663629</v>
+        <v>0.3611091804713802</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>131935</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>112859</v>
+        <v>112683</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>154653</v>
+        <v>155599</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1964310658807713</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1680295423137451</v>
+        <v>0.1677680703528419</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2302540758572844</v>
+        <v>0.2316627983836577</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>204</v>
@@ -1696,19 +1696,19 @@
         <v>204183</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>181409</v>
+        <v>181784</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>226455</v>
+        <v>227190</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3052116745609961</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2711693615287402</v>
+        <v>0.2717293968688489</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3385036352350467</v>
+        <v>0.3396020596597176</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>327</v>
@@ -1717,19 +1717,19 @@
         <v>336118</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>306638</v>
+        <v>303305</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>368432</v>
+        <v>368339</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2507128595065244</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2287230552383037</v>
+        <v>0.2262373684053135</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2748161240511776</v>
+        <v>0.2747465933658328</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>150651</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>129329</v>
+        <v>129461</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>174664</v>
+        <v>173619</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1626655537218487</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.139643153579631</v>
+        <v>0.139786397895351</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1885945338619502</v>
+        <v>0.187465282887435</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>142</v>
@@ -1842,19 +1842,19 @@
         <v>145755</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>125535</v>
+        <v>123206</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>171090</v>
+        <v>170903</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1433472874623151</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1234610312487309</v>
+        <v>0.1211709216382299</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1682628869410123</v>
+        <v>0.1680799098520847</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>297</v>
@@ -1863,19 +1863,19 @@
         <v>296406</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>265970</v>
+        <v>264175</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>330116</v>
+        <v>329113</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1525557032155219</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1368908567553037</v>
+        <v>0.1359667965690694</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1699057675431288</v>
+        <v>0.1693894203964349</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>289474</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259568</v>
+        <v>262553</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>315533</v>
+        <v>317745</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3125606403182759</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2802694073981941</v>
+        <v>0.283492508482734</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3406979704374596</v>
+        <v>0.3430867544974558</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>269</v>
@@ -1913,19 +1913,19 @@
         <v>278603</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>247915</v>
+        <v>249900</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>306706</v>
+        <v>307614</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2739996398933183</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.243818662243915</v>
+        <v>0.2457716133573612</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.301638694164598</v>
+        <v>0.3025313681496958</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>579</v>
@@ -1934,19 +1934,19 @@
         <v>568076</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>528151</v>
+        <v>525607</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>606998</v>
+        <v>604515</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2923804676033286</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2718315608693881</v>
+        <v>0.270522333482406</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3124130899369163</v>
+        <v>0.3111349260345596</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>292674</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>266375</v>
+        <v>265042</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>322282</v>
+        <v>322337</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3160157346813549</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2876192326934584</v>
+        <v>0.2861799895754928</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3479851132995311</v>
+        <v>0.3480450783366708</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>275</v>
@@ -1984,19 +1984,19 @@
         <v>286915</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>257532</v>
+        <v>258267</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>317289</v>
+        <v>314999</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2821748141879488</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2532769607809169</v>
+        <v>0.2540002298954431</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3120466619706435</v>
+        <v>0.3097944494137928</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>584</v>
@@ -2005,19 +2005,19 @@
         <v>579589</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>540904</v>
+        <v>539720</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>620096</v>
+        <v>620532</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2983057268272087</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2783954547398971</v>
+        <v>0.2777858556094358</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3191543450959373</v>
+        <v>0.3193787036067628</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>193339</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>170734</v>
+        <v>169591</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>220491</v>
+        <v>217859</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2087580712785205</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1843510708503299</v>
+        <v>0.1831166984237132</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2380759305542353</v>
+        <v>0.2352340196078376</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>289</v>
@@ -2055,19 +2055,19 @@
         <v>305526</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>276197</v>
+        <v>277736</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>335389</v>
+        <v>336759</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3004782584564178</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2716335300571317</v>
+        <v>0.2731476439925576</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3298476917724741</v>
+        <v>0.331194928143153</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>492</v>
@@ -2076,19 +2076,19 @@
         <v>498864</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>460337</v>
+        <v>461492</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>539641</v>
+        <v>538679</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2567581023539408</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2369288543779602</v>
+        <v>0.2375232846569893</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2777453442573152</v>
+        <v>0.2772503186679776</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>447200</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>411394</v>
+        <v>409451</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>486312</v>
+        <v>486186</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1384163468228202</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.127333980430638</v>
+        <v>0.1267325874054654</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1505222996704913</v>
+        <v>0.1504833771714903</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>339</v>
@@ -2201,19 +2201,19 @@
         <v>341158</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>308108</v>
+        <v>307863</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>377236</v>
+        <v>374113</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1029144225665804</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09294434220971495</v>
+        <v>0.09287060364939992</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1137977052934542</v>
+        <v>0.1128556730247787</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>775</v>
@@ -2222,19 +2222,19 @@
         <v>788358</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>736478</v>
+        <v>740125</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>839486</v>
+        <v>842520</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1204372142709813</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1125115648541151</v>
+        <v>0.1130686952145792</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1282480847986637</v>
+        <v>0.1287115967525203</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>1121594</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1068823</v>
+        <v>1063618</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1179862</v>
+        <v>1177723</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3471537242441361</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.330820129502689</v>
+        <v>0.329209026092477</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3651887603163465</v>
+        <v>0.3645266925462715</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>982</v>
@@ -2272,19 +2272,19 @@
         <v>993940</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>942331</v>
+        <v>941542</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1046848</v>
+        <v>1050818</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2998338109292804</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2842655434760554</v>
+        <v>0.284027400948655</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3157943034686072</v>
+        <v>0.3169917660510617</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2085</v>
@@ -2293,19 +2293,19 @@
         <v>2115534</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2038655</v>
+        <v>2039070</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2190674</v>
+        <v>2188766</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3231896430949351</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3114448639411263</v>
+        <v>0.3115082967073393</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3346686867261827</v>
+        <v>0.3343772032504074</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>1077894</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1021870</v>
+        <v>1023562</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1133600</v>
+        <v>1126473</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3336276168208561</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3162871422766038</v>
+        <v>0.3168108180737333</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3508696394458807</v>
+        <v>0.3486639066890131</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1028</v>
@@ -2343,19 +2343,19 @@
         <v>1057538</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1000765</v>
+        <v>1007663</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1110350</v>
+        <v>1114560</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.319018943712194</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3018927754036018</v>
+        <v>0.3039736626507335</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3349501990213267</v>
+        <v>0.3362202441150174</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2083</v>
@@ -2364,19 +2364,19 @@
         <v>2135432</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2058686</v>
+        <v>2064230</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2213631</v>
+        <v>2215437</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3262293905069414</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3145050239581297</v>
+        <v>0.315351919133231</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3381758542454951</v>
+        <v>0.3384517329354192</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>584141</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1808023121121876</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>885</v>
@@ -2414,19 +2414,19 @@
         <v>922333</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2782328227919453</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1459</v>
@@ -2435,19 +2435,19 @@
         <v>1506475</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2301437521271422</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>99265</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81072</v>
+        <v>82004</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117661</v>
+        <v>119530</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1417311703111678</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1157558423459624</v>
+        <v>0.1170856797389653</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1679979668627324</v>
+        <v>0.1706669437460293</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -2800,19 +2800,19 @@
         <v>79412</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62455</v>
+        <v>62038</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97895</v>
+        <v>96688</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1147515639076378</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09024902289792734</v>
+        <v>0.08964659962660448</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1414603309635246</v>
+        <v>0.1397157466914876</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>164</v>
@@ -2821,19 +2821,19 @@
         <v>178676</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>152211</v>
+        <v>152995</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>205908</v>
+        <v>204834</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1283221657494996</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1093150065344708</v>
+        <v>0.1098779649861101</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1478795764518578</v>
+        <v>0.1471078895098716</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>198013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>176649</v>
+        <v>175165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>226955</v>
+        <v>223140</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2827254474081219</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2522213684034856</v>
+        <v>0.2501032797367828</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.324049708940071</v>
+        <v>0.3186025029533942</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>195</v>
@@ -2871,19 +2871,19 @@
         <v>205210</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>182675</v>
+        <v>180966</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>230484</v>
+        <v>228464</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2965320504751072</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2639684365345663</v>
+        <v>0.2614990387904717</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3330544015448922</v>
+        <v>0.3301344439931982</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>378</v>
@@ -2892,19 +2892,19 @@
         <v>403223</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>370363</v>
+        <v>369541</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>437866</v>
+        <v>436458</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2895874008679814</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2659885250049622</v>
+        <v>0.2653975285149792</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3144673727411171</v>
+        <v>0.313456404980494</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>204278</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>180472</v>
+        <v>178624</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>228208</v>
+        <v>226260</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2916710084286882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2576795520642429</v>
+        <v>0.2550412115309487</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3258387874660131</v>
+        <v>0.3230566322738418</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>185</v>
@@ -2942,19 +2942,19 @@
         <v>196738</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>172186</v>
+        <v>174260</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>220038</v>
+        <v>221512</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2842909948239011</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2488119903107635</v>
+        <v>0.2518093842128157</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3179593767395815</v>
+        <v>0.3200887435471139</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>387</v>
@@ -2963,19 +2963,19 @@
         <v>401017</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>366670</v>
+        <v>368158</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>434920</v>
+        <v>434566</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2880031033224515</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2633358285613098</v>
+        <v>0.2644048808098652</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3123517729627571</v>
+        <v>0.3120973294898785</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>198816</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>176299</v>
+        <v>175991</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>224701</v>
+        <v>224279</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.283872373852022</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2517220127590626</v>
+        <v>0.251281625934541</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3208305013612116</v>
+        <v>0.3202277085730958</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>195</v>
@@ -3013,19 +3013,19 @@
         <v>210672</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>187938</v>
+        <v>187803</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>237625</v>
+        <v>235171</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3044253907933538</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2715737044028624</v>
+        <v>0.2713792191645437</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3433721847577333</v>
+        <v>0.3398271178378323</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>387</v>
@@ -3034,19 +3034,19 @@
         <v>409488</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>378563</v>
+        <v>376956</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>443922</v>
+        <v>446052</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2940873300600675</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2718770735098628</v>
+        <v>0.2707233261920873</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3188167033589449</v>
+        <v>0.3203469293564354</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>113991</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>94526</v>
+        <v>94193</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>137791</v>
+        <v>137999</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1124676459788056</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09326311246492835</v>
+        <v>0.09293383855216954</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1359494525937737</v>
+        <v>0.1361546011338545</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>89</v>
@@ -3159,19 +3159,19 @@
         <v>98795</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>79929</v>
+        <v>80591</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>122398</v>
+        <v>119223</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09649951878566303</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07807230014688683</v>
+        <v>0.07871908334255821</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1195544693964587</v>
+        <v>0.1164536222202017</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>191</v>
@@ -3180,19 +3180,19 @@
         <v>212786</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>184698</v>
+        <v>185336</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>243385</v>
+        <v>242721</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1044434641320256</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09065680911013455</v>
+        <v>0.09097014024794321</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1194626982738237</v>
+        <v>0.1191369550630884</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>242577</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>214722</v>
+        <v>217987</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>272130</v>
+        <v>273450</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2393346284843595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2118518518185304</v>
+        <v>0.2150736359941434</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2684930967707277</v>
+        <v>0.2697950144152458</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>217</v>
@@ -3230,19 +3230,19 @@
         <v>234545</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>209890</v>
+        <v>207290</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>264568</v>
+        <v>262544</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2290968717469507</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2050140198893142</v>
+        <v>0.2024749411956544</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2584216272461892</v>
+        <v>0.2564454328423293</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>447</v>
@@ -3251,19 +3251,19 @@
         <v>477122</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>435925</v>
+        <v>438646</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>514029</v>
+        <v>516926</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2341900288221434</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2139689800879505</v>
+        <v>0.2153045144187681</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2523056075737657</v>
+        <v>0.2537275102252063</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>297956</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>268466</v>
+        <v>267710</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>328772</v>
+        <v>329437</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2939735330058049</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.26487778862093</v>
+        <v>0.2641319890194823</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3243776627536019</v>
+        <v>0.3250344118981081</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>299</v>
@@ -3301,19 +3301,19 @@
         <v>326767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>296459</v>
+        <v>299505</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>359849</v>
+        <v>357819</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3191762839473305</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2895717246248056</v>
+        <v>0.2925476929549891</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3514897809788976</v>
+        <v>0.3495062649733025</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>572</v>
@@ -3322,19 +3322,19 @@
         <v>624723</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>583017</v>
+        <v>577269</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>670115</v>
+        <v>666427</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3066382277535242</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2861677065862243</v>
+        <v>0.2833461388740997</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3289184405906511</v>
+        <v>0.3271083449049043</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>359023</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>329587</v>
+        <v>326081</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>392354</v>
+        <v>392489</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.35422419253103</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3251819470260289</v>
+        <v>0.3217230777898193</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3871100840550303</v>
+        <v>0.38724307388093</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>328</v>
@@ -3372,19 +3372,19 @@
         <v>363676</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>335633</v>
+        <v>327896</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>397111</v>
+        <v>394845</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3552273255200558</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3278359586375235</v>
+        <v>0.3202791228398081</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3878862069558643</v>
+        <v>0.3856727750753595</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>655</v>
@@ -3393,19 +3393,19 @@
         <v>722698</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>679614</v>
+        <v>677527</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>766530</v>
+        <v>769923</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3547282792923068</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3335809509009303</v>
+        <v>0.3325568057005008</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3762426592729234</v>
+        <v>0.3779081931711283</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>106081</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83995</v>
+        <v>85886</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>127045</v>
+        <v>130019</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.140744779275283</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1114417113357177</v>
+        <v>0.1139508468909543</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1685589033334293</v>
+        <v>0.1725047759516159</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>82</v>
@@ -3518,19 +3518,19 @@
         <v>93054</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74754</v>
+        <v>74659</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>112866</v>
+        <v>112418</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1200688321568672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09645618527826354</v>
+        <v>0.09633340614408985</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.145632936110442</v>
+        <v>0.1450542400200811</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>174</v>
@@ -3539,19 +3539,19 @@
         <v>199135</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>174100</v>
+        <v>173713</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>228824</v>
+        <v>231662</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1302628144477854</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1138858552555701</v>
+        <v>0.1136332316976559</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1496831794126962</v>
+        <v>0.1515397460183213</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>175569</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>151828</v>
+        <v>151706</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>201989</v>
+        <v>202638</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2329389633628252</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2014399378060291</v>
+        <v>0.2012779838374528</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2679917201275242</v>
+        <v>0.2688520343321775</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>162</v>
@@ -3589,19 +3589,19 @@
         <v>176767</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>154559</v>
+        <v>154107</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>203486</v>
+        <v>200925</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2280841753613081</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1994296838260529</v>
+        <v>0.198846186230932</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.262560526644992</v>
+        <v>0.2592558221439064</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>315</v>
@@ -3610,19 +3610,19 @@
         <v>352336</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>317152</v>
+        <v>320206</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>388396</v>
+        <v>391428</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2304777596856531</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2074623847854166</v>
+        <v>0.2094599088848106</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2540661282107876</v>
+        <v>0.256049239623695</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>205422</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>179584</v>
+        <v>180459</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>229378</v>
+        <v>231674</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2725466651774402</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2382649118729367</v>
+        <v>0.2394258511710612</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3043304006954486</v>
+        <v>0.307376867542678</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>199</v>
@@ -3660,19 +3660,19 @@
         <v>220533</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>196428</v>
+        <v>194911</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>247212</v>
+        <v>247199</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2845567409030134</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2534534999035907</v>
+        <v>0.251495947332898</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3189803858127254</v>
+        <v>0.3189640444179291</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>390</v>
@@ -3681,19 +3681,19 @@
         <v>425955</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>392182</v>
+        <v>389125</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>464548</v>
+        <v>462444</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2786353435151263</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2565429796142413</v>
+        <v>0.2545429218168237</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.303880575783733</v>
+        <v>0.3025038088523382</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>266641</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>241900</v>
+        <v>237103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>295430</v>
+        <v>293742</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3537695921844516</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3209444434273157</v>
+        <v>0.3145792146767185</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3919662624906788</v>
+        <v>0.3897255195251356</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>260</v>
@@ -3731,19 +3731,19 @@
         <v>284652</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>258308</v>
+        <v>258022</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>312031</v>
+        <v>311926</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3672902515788113</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3332980920084452</v>
+        <v>0.3329288025310326</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4026169958706542</v>
+        <v>0.4024823614284229</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>509</v>
@@ -3752,19 +3752,19 @@
         <v>551293</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>513151</v>
+        <v>513822</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>592961</v>
+        <v>591876</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3606240823514352</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3356736131301926</v>
+        <v>0.3361124725578462</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3878809139982781</v>
+        <v>0.3871709899049661</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>183686</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>157937</v>
+        <v>158957</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>209274</v>
+        <v>210747</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.195096048539566</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1677477168145488</v>
+        <v>0.168831502309037</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.222273393906643</v>
+        <v>0.2238386251246191</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>171</v>
@@ -3877,19 +3877,19 @@
         <v>181475</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>158396</v>
+        <v>155417</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>208003</v>
+        <v>207733</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1725211120537365</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1505809301738905</v>
+        <v>0.1477487531557018</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1977401109025241</v>
+        <v>0.1974832960793746</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>344</v>
@@ -3898,19 +3898,19 @@
         <v>365161</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>329509</v>
+        <v>331866</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>401895</v>
+        <v>401259</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1831835289407849</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1652987114094061</v>
+        <v>0.1664809221206605</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2016113675457529</v>
+        <v>0.2012923634025617</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>268956</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>243110</v>
+        <v>243763</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>300202</v>
+        <v>300663</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2856635805071863</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2582121763275532</v>
+        <v>0.2589049231591193</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3188501750669651</v>
+        <v>0.3193400662806922</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>247</v>
@@ -3948,19 +3948,19 @@
         <v>259274</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>232457</v>
+        <v>230667</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>288194</v>
+        <v>289484</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2464814307539778</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2209873577358696</v>
+        <v>0.2192861482302492</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.273974322259269</v>
+        <v>0.2752008135929213</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>511</v>
@@ -3969,19 +3969,19 @@
         <v>528230</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>485774</v>
+        <v>488870</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>570154</v>
+        <v>570490</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2649876363179098</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2436890994489685</v>
+        <v>0.245242403757865</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2860188877265205</v>
+        <v>0.2861870679664105</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>269417</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>241316</v>
+        <v>243134</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>297645</v>
+        <v>302375</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2861529094062862</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.256306020229193</v>
+        <v>0.2582376775148836</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3161342167480326</v>
+        <v>0.3211584495263884</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>337</v>
@@ -4019,19 +4019,19 @@
         <v>350223</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>320456</v>
+        <v>321947</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>376319</v>
+        <v>380709</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3329433601847245</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3046442703647588</v>
+        <v>0.3060621390385013</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.357751291379351</v>
+        <v>0.3619245397030726</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>595</v>
@@ -4040,19 +4040,19 @@
         <v>619640</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>581276</v>
+        <v>577362</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>662219</v>
+        <v>662071</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3108436615722482</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2915981731182258</v>
+        <v>0.2896348283154827</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3322031464282344</v>
+        <v>0.3321287887098529</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>219455</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>193241</v>
+        <v>194832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>247119</v>
+        <v>247580</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2330874615469614</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2052451179048466</v>
+        <v>0.2069343187436283</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2624697838414171</v>
+        <v>0.2629590285325893</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>248</v>
@@ -4090,19 +4090,19 @@
         <v>260928</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>230448</v>
+        <v>235131</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>289128</v>
+        <v>290485</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2480540970075612</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2190778070648911</v>
+        <v>0.2235298802915249</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2748623739170895</v>
+        <v>0.2761527966901187</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>458</v>
@@ -4111,19 +4111,19 @@
         <v>480383</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>442528</v>
+        <v>442676</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>521189</v>
+        <v>518305</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2409851731690571</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2219949365746443</v>
+        <v>0.2220691751109826</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2614554415492038</v>
+        <v>0.2600084129782029</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>503023</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>461887</v>
+        <v>458490</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>547287</v>
+        <v>549116</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1475509350906579</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1354846658964064</v>
+        <v>0.1344882722207025</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1605350167375361</v>
+        <v>0.161071577291017</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>412</v>
@@ -4236,19 +4236,19 @@
         <v>452736</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>411966</v>
+        <v>413112</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>494070</v>
+        <v>496874</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1277931283753553</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1162850358957945</v>
+        <v>0.1166085650859729</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1394605691806756</v>
+        <v>0.1402521473946404</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>873</v>
@@ -4257,19 +4257,19 @@
         <v>955758</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>901694</v>
+        <v>900730</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1023782</v>
+        <v>1026384</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1374822136968412</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1297053064225191</v>
+        <v>0.1295667043234323</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1472672223745433</v>
+        <v>0.1476414344413023</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>885115</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>838288</v>
+        <v>832277</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>937923</v>
+        <v>940308</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2596296203069124</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2458938593459712</v>
+        <v>0.2441306611112443</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2751196005946691</v>
+        <v>0.2758193782182293</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>821</v>
@@ -4307,19 +4307,19 @@
         <v>875796</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>824544</v>
+        <v>821033</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>931210</v>
+        <v>932603</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2472098607709755</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2327432112287872</v>
+        <v>0.2317521023323982</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2628516632406809</v>
+        <v>0.2632447115145226</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1651</v>
@@ -4328,19 +4328,19 @@
         <v>1760911</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1688471</v>
+        <v>1680383</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1834036</v>
+        <v>1831018</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.253300420899941</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2428802260846411</v>
+        <v>0.2417168157566058</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2638191696845669</v>
+        <v>0.2633850797472195</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>977073</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>923032</v>
+        <v>918924</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1029870</v>
+        <v>1031677</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.286603481793024</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2707517546693933</v>
+        <v>0.2695468032390467</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3020904588487729</v>
+        <v>0.302620587621833</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1020</v>
@@ -4378,19 +4378,19 @@
         <v>1094262</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1034798</v>
+        <v>1039511</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1153127</v>
+        <v>1155097</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3088761545526734</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2920912531986704</v>
+        <v>0.293421665557395</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3254918759386478</v>
+        <v>0.3260478261785454</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1944</v>
@@ -4399,19 +4399,19 @@
         <v>2071335</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1991880</v>
+        <v>1993183</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2154597</v>
+        <v>2151126</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2979537971364205</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2865244106403678</v>
+        <v>0.2867119187137868</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3099307125632588</v>
+        <v>0.3094313842162279</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>1043935</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>990857</v>
+        <v>989983</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1097770</v>
+        <v>1098466</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3062159628094056</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2906467982394483</v>
+        <v>0.2903905478034928</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3220075191731135</v>
+        <v>0.3222115492250381</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1031</v>
@@ -4449,19 +4449,19 @@
         <v>1119928</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1059474</v>
+        <v>1063175</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1173364</v>
+        <v>1175015</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3161208563009959</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2990564639191026</v>
+        <v>0.3001012413198693</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3312041501957175</v>
+        <v>0.3316702245341578</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2009</v>
@@ -4470,19 +4470,19 @@
         <v>2163863</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2082216</v>
+        <v>2087311</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2242136</v>
+        <v>2252403</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3112635682667973</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2995189809956259</v>
+        <v>0.300251809043095</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3225228860985103</v>
+        <v>0.3239997014749658</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>89854</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74021</v>
+        <v>72827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>109784</v>
+        <v>108401</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1350508859373941</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1112537965806426</v>
+        <v>0.1094591710101394</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.165006348268931</v>
+        <v>0.1629277353473246</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -4835,19 +4835,19 @@
         <v>86841</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>71009</v>
+        <v>70217</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>102495</v>
+        <v>104968</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1306048497287553</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1067946989403771</v>
+        <v>0.1056033847607902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1541482766011547</v>
+        <v>0.1578673946873503</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>170</v>
@@ -4856,19 +4856,19 @@
         <v>176694</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>152865</v>
+        <v>150201</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>203351</v>
+        <v>200708</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1328285693807759</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1149154670802558</v>
+        <v>0.112912773453155</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1528677331189957</v>
+        <v>0.150880687523914</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>182306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>159711</v>
+        <v>159794</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>208306</v>
+        <v>207291</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2740080177828393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2400478669746813</v>
+        <v>0.2401719218999614</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3130869604579199</v>
+        <v>0.311560919077478</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -4906,19 +4906,19 @@
         <v>154193</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>136032</v>
+        <v>131173</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>177491</v>
+        <v>174074</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2319001824668314</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2045869727962611</v>
+        <v>0.197278184091526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2669396949305984</v>
+        <v>0.2617994317943752</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>332</v>
@@ -4927,19 +4927,19 @@
         <v>336499</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>306281</v>
+        <v>305568</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>367710</v>
+        <v>370291</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2529607443926018</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.230244288552843</v>
+        <v>0.2297082449097319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2764233646529031</v>
+        <v>0.2783632601359939</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>162160</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>141434</v>
+        <v>139642</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>182776</v>
+        <v>186048</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2437279607333986</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2125774082462216</v>
+        <v>0.2098827829098986</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2747136987049747</v>
+        <v>0.2796326246274272</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>192</v>
@@ -4977,19 +4977,19 @@
         <v>193572</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>169427</v>
+        <v>170185</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>217157</v>
+        <v>217760</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.291123609618203</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2548110967311478</v>
+        <v>0.2559519053012554</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3265951630773117</v>
+        <v>0.3275023514203648</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>353</v>
@@ -4998,19 +4998,19 @@
         <v>355731</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>326257</v>
+        <v>323088</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>387365</v>
+        <v>389573</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2674183065348355</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.245261095054865</v>
+        <v>0.2428789494675558</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2911983805992119</v>
+        <v>0.2928583159118684</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>231012</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>208478</v>
+        <v>206494</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>259519</v>
+        <v>256151</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.347213135546368</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.313345123174003</v>
+        <v>0.310362092088695</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3900594414429716</v>
+        <v>0.3849985527920786</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>226</v>
@@ -5048,19 +5048,19 @@
         <v>230306</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>207066</v>
+        <v>206497</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>253442</v>
+        <v>255442</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3463713581862102</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3114191514396991</v>
+        <v>0.3105629527920002</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3811666419643178</v>
+        <v>0.3841742652205036</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>446</v>
@@ -5069,19 +5069,19 @@
         <v>461318</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>425818</v>
+        <v>426781</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>494331</v>
+        <v>498006</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3467923796917868</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3201055337837235</v>
+        <v>0.3208291843394941</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3716098491496166</v>
+        <v>0.3743721974043546</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>144461</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>119560</v>
+        <v>121577</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>169267</v>
+        <v>168451</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1423932450448719</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1178487586448522</v>
+        <v>0.1198366580505694</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.166843893763127</v>
+        <v>0.1660397605105854</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>111</v>
@@ -5194,19 +5194,19 @@
         <v>121177</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>100353</v>
+        <v>101236</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>145456</v>
+        <v>145112</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1170617222171369</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09694504943998328</v>
+        <v>0.09779800082434915</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1405168673323582</v>
+        <v>0.1401847702885711</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>242</v>
@@ -5215,19 +5215,19 @@
         <v>265638</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>233680</v>
+        <v>234817</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>297778</v>
+        <v>298406</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.129600013185408</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1140082794809818</v>
+        <v>0.114563244283149</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1452808041502242</v>
+        <v>0.1455870337912227</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>239472</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>212771</v>
+        <v>211020</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>268454</v>
+        <v>268932</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2360434434157341</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2097251378774367</v>
+        <v>0.2079989961745841</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2646109500391409</v>
+        <v>0.2650822910320985</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>218</v>
@@ -5265,19 +5265,19 @@
         <v>231813</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>205508</v>
+        <v>204432</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>261362</v>
+        <v>258874</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2239413366683635</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1985298941607053</v>
+        <v>0.1974897929279543</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2524867311652086</v>
+        <v>0.2500831708893316</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>438</v>
@@ -5286,19 +5286,19 @@
         <v>471284</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>433379</v>
+        <v>434984</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>513290</v>
+        <v>509906</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2299314911789906</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2114379893234858</v>
+        <v>0.2122213257602636</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2504254940638606</v>
+        <v>0.2487743494852554</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>284757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>256064</v>
+        <v>255705</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316810</v>
+        <v>317677</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2806806318932937</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.25239801766507</v>
+        <v>0.2520441776794383</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3122751635467993</v>
+        <v>0.3131295822098468</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>298</v>
@@ -5336,19 +5336,19 @@
         <v>318261</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>289062</v>
+        <v>287409</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>350052</v>
+        <v>349670</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3074541573959181</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2792465401599362</v>
+        <v>0.2776496640418926</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.338165485008204</v>
+        <v>0.337796137046784</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>568</v>
@@ -5357,19 +5357,19 @@
         <v>603018</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>561163</v>
+        <v>557604</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>645369</v>
+        <v>646111</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2942021213741916</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.273781958080791</v>
+        <v>0.2720454972436148</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3148643669044413</v>
+        <v>0.315226231886842</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>345833</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>316233</v>
+        <v>315560</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>378142</v>
+        <v>376715</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3408826796461003</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3117060833512698</v>
+        <v>0.3110430064568455</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3727286077979731</v>
+        <v>0.3713218946187192</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>344</v>
@@ -5407,19 +5407,19 @@
         <v>363900</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>331743</v>
+        <v>335508</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>398143</v>
+        <v>397912</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3515427837185814</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3204775146782765</v>
+        <v>0.3241145906639754</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3846227133900249</v>
+        <v>0.3844001270562726</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>666</v>
@@ -5428,19 +5428,19 @@
         <v>709733</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>667901</v>
+        <v>664429</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>755351</v>
+        <v>754123</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3462663742614098</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3258571665330452</v>
+        <v>0.3241634955160679</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3685225622200188</v>
+        <v>0.3679234757442528</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>71924</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56852</v>
+        <v>56806</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>88765</v>
+        <v>89418</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09525870867286361</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07529705153520079</v>
+        <v>0.07523619687268175</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1175635986566944</v>
+        <v>0.1184283463641784</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -5553,19 +5553,19 @@
         <v>77310</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>62506</v>
+        <v>61272</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>96961</v>
+        <v>97300</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09861618015156441</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07973247694682162</v>
+        <v>0.07815829421616427</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1236835458584373</v>
+        <v>0.1241158473909951</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>138</v>
@@ -5574,19 +5574,19 @@
         <v>149234</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>128316</v>
+        <v>125250</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>174472</v>
+        <v>172877</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09696897799328857</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08337699074259217</v>
+        <v>0.08138470791793086</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1133681269302051</v>
+        <v>0.1123316279252144</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>147839</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>125258</v>
+        <v>124755</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>171192</v>
+        <v>170009</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1958040069875625</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1658960194024724</v>
+        <v>0.165229790505746</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2267332017615442</v>
+        <v>0.2251665573775115</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>141</v>
@@ -5624,19 +5624,19 @@
         <v>148011</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>126834</v>
+        <v>126319</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>171171</v>
+        <v>171722</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1888027891690514</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1617894316283311</v>
+        <v>0.16113195910995</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2183456982160407</v>
+        <v>0.2190480721181869</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>276</v>
@@ -5645,19 +5645,19 @@
         <v>295851</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>266576</v>
+        <v>265137</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>327985</v>
+        <v>328076</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1922376422048464</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1732155184382466</v>
+        <v>0.1722807248372656</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2131174122755718</v>
+        <v>0.2131770784463224</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>215417</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>192088</v>
+        <v>190324</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>243917</v>
+        <v>241358</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2853068026605333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2544085512975518</v>
+        <v>0.252072345444928</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.323052723222315</v>
+        <v>0.3196637540916567</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>182</v>
@@ -5695,19 +5695,19 @@
         <v>193146</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>166463</v>
+        <v>170257</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>217672</v>
+        <v>217121</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2463762795031683</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2123397576388975</v>
+        <v>0.217178950922566</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2776620102607323</v>
+        <v>0.2769592476741111</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>379</v>
@@ -5716,19 +5716,19 @@
         <v>408563</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>376699</v>
+        <v>373748</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>446907</v>
+        <v>444678</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.265475903185581</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2447711020247299</v>
+        <v>0.2428536639296485</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2903908236883075</v>
+        <v>0.2889424777597139</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>319857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>293271</v>
+        <v>290593</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>345896</v>
+        <v>347938</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4236304816790407</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3884183721989493</v>
+        <v>0.3848724341608021</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4581173268655801</v>
+        <v>0.4608213728695219</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>340</v>
@@ -5766,19 +5766,19 @@
         <v>365480</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>336498</v>
+        <v>335962</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>394000</v>
+        <v>393397</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4662047511762158</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4292353687378208</v>
+        <v>0.4285522904596156</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5025846100352813</v>
+        <v>0.5018155500319484</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>634</v>
@@ -5787,19 +5787,19 @@
         <v>685337</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>642861</v>
+        <v>646617</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>722519</v>
+        <v>726206</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.445317476616284</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4177175841432109</v>
+        <v>0.4201582860471932</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4694777101980893</v>
+        <v>0.4718734866569831</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>200462</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>177330</v>
+        <v>174182</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>227088</v>
+        <v>225494</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2149981842260121</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1901886445344637</v>
+        <v>0.1868126208350918</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2435548854292496</v>
+        <v>0.2418447697541221</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>186</v>
@@ -5912,19 +5912,19 @@
         <v>204370</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>179267</v>
+        <v>180245</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>231455</v>
+        <v>231275</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1959856004535423</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1719125328982248</v>
+        <v>0.1728495583726914</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2219588679324241</v>
+        <v>0.2217864177941249</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>376</v>
@@ -5933,19 +5933,19 @@
         <v>404833</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>369519</v>
+        <v>368147</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>441973</v>
+        <v>439758</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2049605822531128</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1870816516314699</v>
+        <v>0.1863870620162362</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.223764058491469</v>
+        <v>0.2226428691528876</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>254142</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>226249</v>
+        <v>230736</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>281975</v>
+        <v>281656</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2725708259842962</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2426550919467135</v>
+        <v>0.2474676769266947</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3024214939626807</v>
+        <v>0.302079775183577</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>215</v>
@@ -5983,19 +5983,19 @@
         <v>237041</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>208545</v>
+        <v>207844</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>266168</v>
+        <v>266079</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2273159569578</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.199988941663326</v>
+        <v>0.1993163406530127</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2552478758648513</v>
+        <v>0.2551625752964389</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>469</v>
@@ -6004,19 +6004,19 @@
         <v>491184</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>454254</v>
+        <v>451815</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>528478</v>
+        <v>531223</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2486787359843345</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2299818727862924</v>
+        <v>0.228746892171741</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2675602997270825</v>
+        <v>0.268949917760589</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>246491</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>223451</v>
+        <v>220287</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>275258</v>
+        <v>272590</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2643641938469448</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2396540044846955</v>
+        <v>0.2362608661603329</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.29521713627419</v>
+        <v>0.2923560871261968</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>279</v>
@@ -6054,19 +6054,19 @@
         <v>301496</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>271399</v>
+        <v>272976</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>333874</v>
+        <v>332783</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2891267762165182</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2602637701669588</v>
+        <v>0.2617762604429214</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3201758275864566</v>
+        <v>0.3191297110527024</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>532</v>
@@ -6075,19 +6075,19 @@
         <v>547987</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>506761</v>
+        <v>510259</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>585104</v>
+        <v>591670</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2774374798674815</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2565655729824147</v>
+        <v>0.2583363243091885</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2962292443714964</v>
+        <v>0.2995532673134577</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>231295</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>207481</v>
+        <v>205718</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>258951</v>
+        <v>259681</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2480667959427469</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2225256702161278</v>
+        <v>0.2206348484653665</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2777279330897667</v>
+        <v>0.2785108889349386</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>278</v>
@@ -6125,19 +6125,19 @@
         <v>299875</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>273020</v>
+        <v>271308</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>330421</v>
+        <v>330937</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2875716663721396</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2618186786448425</v>
+        <v>0.260176806867676</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3168648040820604</v>
+        <v>0.317359547415008</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>508</v>
@@ -6146,19 +6146,19 @@
         <v>531170</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>490714</v>
+        <v>492389</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>572324</v>
+        <v>573997</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2689232018950712</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2484408993094647</v>
+        <v>0.2492890543198743</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2897591310901347</v>
+        <v>0.2906057899415562</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>506701</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>461419</v>
+        <v>466111</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>550216</v>
+        <v>547992</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1504777000277715</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1370301212295805</v>
+        <v>0.1384235031084956</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1634005501805375</v>
+        <v>0.1627402689109902</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>455</v>
@@ -6271,19 +6271,19 @@
         <v>489697</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>452829</v>
+        <v>444141</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>534010</v>
+        <v>536312</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1388506864301376</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1283967623342914</v>
+        <v>0.1259335256155237</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1514152105075483</v>
+        <v>0.1520678661116583</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>926</v>
@@ -6292,19 +6292,19 @@
         <v>996398</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>941182</v>
+        <v>935744</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1055876</v>
+        <v>1057791</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1445296845194081</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1365203945643342</v>
+        <v>0.1357315969908689</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.153157057744731</v>
+        <v>0.1534347605911447</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>823759</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>774569</v>
+        <v>771067</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>877138</v>
+        <v>872402</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2446362700532007</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2300279527207238</v>
+        <v>0.2289878340483749</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2604884596081251</v>
+        <v>0.2590819559254787</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>728</v>
@@ -6342,19 +6342,19 @@
         <v>771059</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>720594</v>
+        <v>721661</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>819547</v>
+        <v>824965</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2186289099689063</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.204320099382715</v>
+        <v>0.2046224360279036</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2323774666566522</v>
+        <v>0.2339137477680431</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1515</v>
@@ -6363,19 +6363,19 @@
         <v>1594818</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1517379</v>
+        <v>1521838</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1671217</v>
+        <v>1662771</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2313317202808967</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2200989678271164</v>
+        <v>0.2207458447545878</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2424135419953598</v>
+        <v>0.241188385520955</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>908825</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>854606</v>
+        <v>854526</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>963501</v>
+        <v>960224</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2698986080394809</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2537968730224924</v>
+        <v>0.2537731561834399</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2861360468233968</v>
+        <v>0.2851627970654264</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>951</v>
@@ -6413,19 +6413,19 @@
         <v>1006475</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>951405</v>
+        <v>950877</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1064486</v>
+        <v>1062526</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2853798041068393</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2697648567285753</v>
+        <v>0.2696153449041295</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3018285136966268</v>
+        <v>0.3012726275147082</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1832</v>
@@ -6434,19 +6434,19 @@
         <v>1915300</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1839497</v>
+        <v>1845491</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1992435</v>
+        <v>1994982</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2778183024238928</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2668228836864426</v>
+        <v>0.267692274513576</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2890068154879187</v>
+        <v>0.2893762534614785</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>1127997</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1073090</v>
+        <v>1075168</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1185169</v>
+        <v>1184613</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3349874218795469</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3186814587654283</v>
+        <v>0.3192984871535899</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3519660070048566</v>
+        <v>0.3518009977240096</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1188</v>
@@ -6484,19 +6484,19 @@
         <v>1259561</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1203794</v>
+        <v>1208388</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1317053</v>
+        <v>1322874</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3571405994941168</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3413284128898709</v>
+        <v>0.342630972257788</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3734421093541375</v>
+        <v>0.3750928488997676</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2254</v>
@@ -6505,19 +6505,19 @@
         <v>2387558</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2304390</v>
+        <v>2304920</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2470329</v>
+        <v>2473364</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3463202927758023</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.334256535229414</v>
+        <v>0.3343335167394599</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3583264067718812</v>
+        <v>0.3587666103649736</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>162348</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>139430</v>
+        <v>139214</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184199</v>
+        <v>187186</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.241452201652589</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2073676718485236</v>
+        <v>0.2070466895915221</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2739503578474729</v>
+        <v>0.2783926336303156</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>287</v>
@@ -6870,19 +6870,19 @@
         <v>166264</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>147214</v>
+        <v>148063</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>184963</v>
+        <v>187551</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2305640964178579</v>
+        <v>0.2305640964178578</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2041472456726763</v>
+        <v>0.2053244739217784</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2564944640215905</v>
+        <v>0.2600845554302271</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>470</v>
@@ -6891,19 +6891,19 @@
         <v>328611</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>298980</v>
+        <v>298497</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>358514</v>
+        <v>360734</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2358177448039279</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2145536498715258</v>
+        <v>0.2142075479668404</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2572767427838442</v>
+        <v>0.2588695760087193</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>215790</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>193045</v>
+        <v>189318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>244445</v>
+        <v>239139</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3209342786420907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2871067307687352</v>
+        <v>0.2815636824611473</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3635524233348459</v>
+        <v>0.3556605028819026</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>355</v>
@@ -6941,19 +6941,19 @@
         <v>215961</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>195803</v>
+        <v>196131</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>237449</v>
+        <v>237491</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2994814070590862</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2715274627645231</v>
+        <v>0.27198203171999</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3292800106614834</v>
+        <v>0.3293381554917336</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>590</v>
@@ -6962,19 +6962,19 @@
         <v>431751</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>397372</v>
+        <v>400181</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>462222</v>
+        <v>465338</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3098326887319623</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.285162228303913</v>
+        <v>0.2871779740483704</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3316998789326098</v>
+        <v>0.3339359542288681</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>205611</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>177576</v>
+        <v>180276</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>230441</v>
+        <v>234854</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3057952075458701</v>
+        <v>0.30579520754587</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2641011846426393</v>
+        <v>0.2681160951406814</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3427246519680958</v>
+        <v>0.3492882560258699</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>378</v>
@@ -7012,19 +7012,19 @@
         <v>215629</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>196637</v>
+        <v>195478</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>235450</v>
+        <v>234255</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2990207182286381</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2726842216533086</v>
+        <v>0.2710765696540745</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3265077122251329</v>
+        <v>0.3248498290666462</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>592</v>
@@ -7033,19 +7033,19 @@
         <v>421239</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>392812</v>
+        <v>390431</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>459001</v>
+        <v>455050</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3022894949442044</v>
+        <v>0.3022894949442043</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2818892752772666</v>
+        <v>0.2801806879780666</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3293880986656075</v>
+        <v>0.326552673600698</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>88632</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72488</v>
+        <v>71147</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110391</v>
+        <v>110477</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1318183121594501</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1078078837511744</v>
+        <v>0.105814393665476</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1641797516956487</v>
+        <v>0.1643068648071067</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>197</v>
@@ -7083,19 +7083,19 @@
         <v>123263</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>107075</v>
+        <v>108158</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>140079</v>
+        <v>141199</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1709337782944179</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1484845730932325</v>
+        <v>0.1499862184106212</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1942525732866013</v>
+        <v>0.1958054633161864</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>283</v>
@@ -7104,19 +7104,19 @@
         <v>211895</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>188475</v>
+        <v>187023</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>240195</v>
+        <v>238143</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1520600715199055</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1352534158587522</v>
+        <v>0.1342110547514077</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1723688124338463</v>
+        <v>0.1708962507843975</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>248074</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>217959</v>
+        <v>217672</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>279264</v>
+        <v>283503</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2393752055160586</v>
+        <v>0.2393752055160585</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.210315786037058</v>
+        <v>0.2100392976714943</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2694711763808113</v>
+        <v>0.2735619236685383</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>317</v>
@@ -7229,19 +7229,19 @@
         <v>223339</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>200291</v>
+        <v>199970</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>249461</v>
+        <v>250503</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2100971078186331</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1884155792270992</v>
+        <v>0.1881132895478941</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2346704313968072</v>
+        <v>0.2356497858721686</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>534</v>
@@ -7250,19 +7250,19 @@
         <v>471414</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>432090</v>
+        <v>433964</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>513818</v>
+        <v>514894</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2245500646376136</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2058188382479414</v>
+        <v>0.2067116557373469</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2447487111321333</v>
+        <v>0.2452611993770542</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>362240</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>328844</v>
+        <v>325292</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>395018</v>
+        <v>397286</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3495373623372662</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3173123067152891</v>
+        <v>0.3138849301441151</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.381165972491804</v>
+        <v>0.3833543947453383</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>474</v>
@@ -7300,19 +7300,19 @@
         <v>337442</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>311155</v>
+        <v>311550</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>364967</v>
+        <v>365221</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3174347778688931</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2927064463495865</v>
+        <v>0.2930777865790469</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3433275138897973</v>
+        <v>0.3435659870805822</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>813</v>
@@ -7321,19 +7321,19 @@
         <v>699682</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>657210</v>
+        <v>654526</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>744524</v>
+        <v>739333</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.33328202559291</v>
+        <v>0.3332820255929099</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.313050932790348</v>
+        <v>0.3117723415274959</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3546417452112655</v>
+        <v>0.3521688829538798</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>288750</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>258918</v>
+        <v>258170</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>325304</v>
+        <v>323609</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2786243937575499</v>
+        <v>0.2786243937575498</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2498385383721261</v>
+        <v>0.2491170931244649</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3138966368877539</v>
+        <v>0.3122612264581361</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>498</v>
@@ -7371,19 +7371,19 @@
         <v>347859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>321382</v>
+        <v>321587</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>376122</v>
+        <v>377400</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3272335356125333</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3023264568403756</v>
+        <v>0.3025196495284159</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3538207065034818</v>
+        <v>0.3550230063703335</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>774</v>
@@ -7392,19 +7392,19 @@
         <v>636609</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>595614</v>
+        <v>592993</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>681448</v>
+        <v>676463</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3032379251224586</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2837106348240541</v>
+        <v>0.282462227437984</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3245965971644075</v>
+        <v>0.3222220837659489</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>137277</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>115525</v>
+        <v>114535</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>164483</v>
+        <v>164932</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1324630383891254</v>
+        <v>0.1324630383891253</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1114738989241097</v>
+        <v>0.1105185630799148</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1587155394566609</v>
+        <v>0.1591480667186463</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>216</v>
@@ -7442,19 +7442,19 @@
         <v>154389</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>135936</v>
+        <v>134653</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>178651</v>
+        <v>175670</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1452345786999404</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.127876061678178</v>
+        <v>0.1266691204667253</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1680582318026922</v>
+        <v>0.1652540138947434</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>339</v>
@@ -7463,19 +7463,19 @@
         <v>291665</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>258284</v>
+        <v>263290</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>324060</v>
+        <v>323757</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1389299846470177</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1230293848720442</v>
+        <v>0.1254137984691956</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1543605299861567</v>
+        <v>0.1542164959593452</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>239841</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>211565</v>
+        <v>209913</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>272794</v>
+        <v>269305</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3019816434750339</v>
+        <v>0.3019816434750338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2663800725269752</v>
+        <v>0.2642997794935509</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3434723483244331</v>
+        <v>0.3390797584145297</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>275</v>
@@ -7588,19 +7588,19 @@
         <v>216585</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>193997</v>
+        <v>194861</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>238334</v>
+        <v>240311</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2689097662430577</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.240864907678085</v>
+        <v>0.2419375558708944</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2959137423648955</v>
+        <v>0.2983686151507047</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>480</v>
@@ -7609,19 +7609,19 @@
         <v>456426</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>419212</v>
+        <v>416661</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>495983</v>
+        <v>492356</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2853299935994611</v>
+        <v>0.2853299935994612</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2620658884239697</v>
+        <v>0.2604714765543577</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3100587010691644</v>
+        <v>0.3077915498764</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>212303</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>185157</v>
+        <v>186902</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>243339</v>
+        <v>242751</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2673084599198426</v>
+        <v>0.2673084599198425</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.233129959566586</v>
+        <v>0.2353262074722953</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3063863500320139</v>
+        <v>0.3056453696315287</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>258</v>
@@ -7659,19 +7659,19 @@
         <v>196991</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>175652</v>
+        <v>174833</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>219088</v>
+        <v>219114</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2445824484660483</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2180875581545963</v>
+        <v>0.2170709478859136</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2720172222241319</v>
+        <v>0.2720497404749285</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>442</v>
@@ -7680,19 +7680,19 @@
         <v>409294</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>376714</v>
+        <v>372707</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>449762</v>
+        <v>447423</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2558659408531913</v>
+        <v>0.2558659408531914</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2354992453024975</v>
+        <v>0.2329938396831804</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2811644078761929</v>
+        <v>0.2797020044031817</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>231415</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>202470</v>
+        <v>203656</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>263244</v>
+        <v>263270</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2913725028656103</v>
+        <v>0.2913725028656102</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2549284071143778</v>
+        <v>0.2564210825455804</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3314476049472481</v>
+        <v>0.3314811655973481</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>326</v>
@@ -7730,19 +7730,19 @@
         <v>252037</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>227529</v>
+        <v>230644</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>277841</v>
+        <v>277410</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3129269814593295</v>
+        <v>0.3129269814593296</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2824974630824059</v>
+        <v>0.2863655293853843</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3449650651356173</v>
+        <v>0.3444300892412168</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>510</v>
@@ -7751,19 +7751,19 @@
         <v>483452</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>445448</v>
+        <v>444861</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>524628</v>
+        <v>522968</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3022251565651745</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2784675440749677</v>
+        <v>0.2781001249522747</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3279661762690884</v>
+        <v>0.3269279054349339</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>110665</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88904</v>
+        <v>89387</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>134187</v>
+        <v>135518</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1393373937395133</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1119386574073779</v>
+        <v>0.1125467391015414</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1689538058925214</v>
+        <v>0.1706290084195773</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -7801,19 +7801,19 @@
         <v>139805</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>121705</v>
+        <v>120232</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>162332</v>
+        <v>160360</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1735808038315645</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.151108456059838</v>
+        <v>0.1492794696887969</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2015495674260788</v>
+        <v>0.1991020821615672</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>274</v>
@@ -7822,19 +7822,19 @@
         <v>250470</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>220207</v>
+        <v>218887</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>282587</v>
+        <v>283568</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.156578908982173</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1376600371099919</v>
+        <v>0.1368351964248376</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1766564757713792</v>
+        <v>0.1772697163489102</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>325666</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>294630</v>
+        <v>296275</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>355664</v>
+        <v>356107</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3328763912512678</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3011528170875833</v>
+        <v>0.302834915969898</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.363538661468177</v>
+        <v>0.3639915153173859</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>445</v>
@@ -7947,19 +7947,19 @@
         <v>304157</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>279497</v>
+        <v>278576</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>330685</v>
+        <v>331607</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2745466773299449</v>
+        <v>0.274546677329945</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2522872797232038</v>
+        <v>0.251455899512346</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.298491834240932</v>
+        <v>0.2993235828298362</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>787</v>
@@ -7968,19 +7968,19 @@
         <v>629823</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>590635</v>
+        <v>589657</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>671727</v>
+        <v>669629</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3019009392636905</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2831162581101289</v>
+        <v>0.2826477434675777</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3219872213343186</v>
+        <v>0.320981273379763</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>256147</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>229307</v>
+        <v>227128</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>285220</v>
+        <v>286853</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2618178584546345</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2343836467270969</v>
+        <v>0.2321564910293054</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2915349540216584</v>
+        <v>0.2932036146726205</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>429</v>
@@ -8018,19 +8018,19 @@
         <v>297247</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>272083</v>
+        <v>272435</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>326770</v>
+        <v>324153</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2683092575737693</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2455949669855371</v>
+        <v>0.2459123199018996</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2949583133771955</v>
+        <v>0.2925956689487011</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>700</v>
@@ -8039,19 +8039,19 @@
         <v>553394</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>513732</v>
+        <v>517040</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>592331</v>
+        <v>591354</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2652650555730393</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2462536355677261</v>
+        <v>0.2478389056742526</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2839293957657784</v>
+        <v>0.2834607557992172</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>234361</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>207184</v>
+        <v>210039</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>263366</v>
+        <v>266773</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.239550011580619</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.211771306145871</v>
+        <v>0.2146895961217916</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2691970779745786</v>
+        <v>0.2726796402871137</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>405</v>
@@ -8089,19 +8089,19 @@
         <v>300325</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>273875</v>
+        <v>275687</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>327023</v>
+        <v>330311</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2710873501606867</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2472127094489407</v>
+        <v>0.2488475960788323</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2951862208838618</v>
+        <v>0.2981537515113591</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>641</v>
@@ -8110,19 +8110,19 @@
         <v>534686</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>493798</v>
+        <v>499695</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>573610</v>
+        <v>577534</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2562976218692707</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2366982320318863</v>
+        <v>0.2395248269591344</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.27495558405489</v>
+        <v>0.2768365765546689</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>162165</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>139338</v>
+        <v>138381</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>190652</v>
+        <v>186670</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1657557387134787</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1424227327884312</v>
+        <v>0.1414450775281942</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1948728812660091</v>
+        <v>0.1908027270637412</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>270</v>
@@ -8160,19 +8160,19 @@
         <v>206123</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>183499</v>
+        <v>184581</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>229960</v>
+        <v>231347</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.186056714935599</v>
+        <v>0.1860567149355991</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1656350568501584</v>
+        <v>0.1666114335437592</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2075729609471649</v>
+        <v>0.2088246151687501</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>420</v>
@@ -8181,19 +8181,19 @@
         <v>368289</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>334309</v>
+        <v>331404</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>407845</v>
+        <v>401919</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1765363832939995</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1602486406866362</v>
+        <v>0.1588558308750501</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1954972340522974</v>
+        <v>0.1926569016752496</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>975929</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>917554</v>
+        <v>920431</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1034274</v>
+        <v>1035082</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2803359393714934</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2635677317228594</v>
+        <v>0.2643940685235563</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2970954533128424</v>
+        <v>0.2973276268462311</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1324</v>
@@ -8306,19 +8306,19 @@
         <v>910345</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>867048</v>
+        <v>863316</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>963045</v>
+        <v>962051</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2462111114442388</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2345010498391694</v>
+        <v>0.2334918368566812</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2604642536321563</v>
+        <v>0.2601954144866355</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2271</v>
@@ -8327,19 +8327,19 @@
         <v>1886274</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1808500</v>
+        <v>1812689</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1955897</v>
+        <v>1964883</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2627598211531695</v>
+        <v>0.2627598211531696</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2519258086009735</v>
+        <v>0.252509334503484</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2724582853836616</v>
+        <v>0.2737100805460225</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>1046479</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>992262</v>
+        <v>988609</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1106203</v>
+        <v>1107241</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.300601472498592</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2850275857055368</v>
+        <v>0.2839782214122557</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3177572726360147</v>
+        <v>0.318055437307776</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1516</v>
@@ -8377,19 +8377,19 @@
         <v>1047642</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>999410</v>
+        <v>1002729</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1094832</v>
+        <v>1095291</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2833442430942961</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.270299622561203</v>
+        <v>0.2711973532300399</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2961074252487085</v>
+        <v>0.2962314976758822</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2545</v>
@@ -8398,19 +8398,19 @@
         <v>2094121</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2020533</v>
+        <v>2020132</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2180651</v>
+        <v>2167498</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2917130729797071</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.281462259729262</v>
+        <v>0.2814063965981847</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3037667901259273</v>
+        <v>0.3019346150646854</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>960137</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>900695</v>
+        <v>894612</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1015342</v>
+        <v>1014050</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2757995596910936</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2587249025633793</v>
+        <v>0.2569776949352782</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2916573427338057</v>
+        <v>0.2912862660843019</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1607</v>
@@ -8448,19 +8448,19 @@
         <v>1115849</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1066319</v>
+        <v>1067964</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1168464</v>
+        <v>1168397</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3017916578455079</v>
+        <v>0.301791657845508</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2883958330865768</v>
+        <v>0.2888405129204766</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3160217560517238</v>
+        <v>0.3160036253974198</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2517</v>
@@ -8469,19 +8469,19 @@
         <v>2075986</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1997578</v>
+        <v>1997468</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2154069</v>
+        <v>2149838</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2891868855078898</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.278264520309268</v>
+        <v>0.2782492192055153</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3000639323540074</v>
+        <v>0.29947450137907</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>498739</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>454576</v>
+        <v>453404</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>543337</v>
+        <v>547477</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.143263028438821</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1305771752612658</v>
+        <v>0.1302403486750901</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1560738651865175</v>
+        <v>0.1572629658655176</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>861</v>
@@ -8519,19 +8519,19 @@
         <v>623580</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>584943</v>
+        <v>582638</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>668284</v>
+        <v>666761</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.168652987615957</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1582031961928502</v>
+        <v>0.1575799114883717</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1807435181023281</v>
+        <v>0.1803316867074464</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1316</v>
@@ -8540,19 +8540,19 @@
         <v>1122320</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1060166</v>
+        <v>1065686</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1186764</v>
+        <v>1192142</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1563402203592335</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1476821080776039</v>
+        <v>0.1484511499309641</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1653173067503195</v>
+        <v>0.1660665605953379</v>
       </c>
     </row>
     <row r="28">
